--- a/Assigment.xlsx
+++ b/Assigment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>Chức năng Admin(5)</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Task tuan 6 :</t>
+  </si>
+  <si>
+    <t>1/ Manage job</t>
+  </si>
+  <si>
+    <t>2/ Manage Post (list, search, detail, add, update, delete,paging)</t>
+  </si>
+  <si>
+    <t>QL post dưới góc nhìn của Admin</t>
+  </si>
+  <si>
+    <t>3/ Viết chức năng phân quyền cho hệ thống.</t>
+  </si>
+  <si>
+    <t>role 1 : Admin</t>
+  </si>
+  <si>
+    <t>role 2 : Supplier</t>
+  </si>
+  <si>
+    <t>role 3: Applier</t>
+  </si>
+  <si>
+    <t>role 4: guest</t>
+  </si>
+  <si>
+    <t>thứ 7 29/6/2019</t>
   </si>
 </sst>
 </file>
@@ -183,19 +216,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -411,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -422,7 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -430,16 +468,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,33 +795,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
-    <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
@@ -788,12 +835,15 @@
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -811,12 +861,15 @@
       <c r="H3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="28"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -832,12 +885,15 @@
       <c r="H4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="28"/>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -853,8 +909,11 @@
       <c r="H5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,17 +932,20 @@
       <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -893,7 +955,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -901,7 +963,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
@@ -909,7 +971,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -917,7 +979,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>17</v>
@@ -925,82 +987,134 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="22" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="27" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
